--- a/Beton/src/main/resources/dataSheets/testResults_1.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="241">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -504,6 +504,237 @@
   </si>
   <si>
     <t>2015-10-14 01:35:19</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-14-17-02-38-274-IDT.png</t>
+  </si>
+  <si>
+    <t>googleTest</t>
+  </si>
+  <si>
+    <t>2015-10-14:14-01-48</t>
+  </si>
+  <si>
+    <t>1444831308927</t>
+  </si>
+  <si>
+    <t>2015-10-14 17:02:38</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-14-17-03-17-439-IDT.png</t>
+  </si>
+  <si>
+    <t>{userDataDir=C:\Users\AvnerG\AppData\Local\Temp\scoped_dir4556_29139}</t>
+  </si>
+  <si>
+    <t>43818df9-1879-46a4-99a0-88f7ae748281</t>
+  </si>
+  <si>
+    <t>2015-10-14 17:03:17</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-11-58-45-894-IDT.png</t>
+  </si>
+  <si>
+    <t>2015-10-15:08-58-19</t>
+  </si>
+  <si>
+    <t>1444899499918</t>
+  </si>
+  <si>
+    <t>2015-10-15 11:58:45</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-11-58-48-015-IDT.png</t>
+  </si>
+  <si>
+    <t>2015-10-15 11:58:48</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-11-59-01-727-IDT.png</t>
+  </si>
+  <si>
+    <t>{userDataDir=C:\Users\AvnerG\AppData\Local\Temp\scoped_dir8836_28291}</t>
+  </si>
+  <si>
+    <t>da1ae0e4-460b-4e64-9685-0f16e4b7c51f</t>
+  </si>
+  <si>
+    <t>2015-10-15 11:59:01</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-11-59-01-895-IDT.png</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-12-02-46-127-IDT.png</t>
+  </si>
+  <si>
+    <t>{userDataDir=C:\Users\AvnerG\AppData\Local\Temp\scoped_dir7136_12246}</t>
+  </si>
+  <si>
+    <t>246c4ddb-7125-4bdc-92b2-f2186cda6b7c</t>
+  </si>
+  <si>
+    <t>2015-10-15 12:02:46</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-12-02-46-322-IDT.png</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-12-03-02-277-IDT.png</t>
+  </si>
+  <si>
+    <t>2015-10-15:09-02-45</t>
+  </si>
+  <si>
+    <t>1444899765218</t>
+  </si>
+  <si>
+    <t>2015-10-15 12:03:02</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-12-03-05-117-IDT.png</t>
+  </si>
+  <si>
+    <t>2015-10-15 12:03:05</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-08-34-698-IDT.png</t>
+  </si>
+  <si>
+    <t>{userDataDir=C:\Users\AvnerG\AppData\Local\Temp\scoped_dir5928_7461}</t>
+  </si>
+  <si>
+    <t>6594d04b-3231-4036-a3e2-da4eb79a138c</t>
+  </si>
+  <si>
+    <t>2015-10-15 13:08:34</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-08-34-902-IDT.png</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-09-15-385-IDT.png</t>
+  </si>
+  <si>
+    <t>2015-10-15:10-08-50</t>
+  </si>
+  <si>
+    <t>1444903730731</t>
+  </si>
+  <si>
+    <t>2015-10-15 13:09:15</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-09-18-316-IDT.png</t>
+  </si>
+  <si>
+    <t>2015-10-15 13:09:18</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-11-09-934-IDT.png</t>
+  </si>
+  <si>
+    <t>{userDataDir=C:\Users\AvnerG\AppData\Local\Temp\scoped_dir7824_22156}</t>
+  </si>
+  <si>
+    <t>246bca42-641c-4f29-8594-e60cf9492648</t>
+  </si>
+  <si>
+    <t>2015-10-15 13:11:09</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-11-10-135-IDT.png</t>
+  </si>
+  <si>
+    <t>2015-10-15 13:11:10</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-11-35-450-IDT.png</t>
+  </si>
+  <si>
+    <t>2015-10-15:10-11-09</t>
+  </si>
+  <si>
+    <t>1444903869865</t>
+  </si>
+  <si>
+    <t>2015-10-15 13:11:35</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-11-37-425-IDT.png</t>
+  </si>
+  <si>
+    <t>2015-10-15 13:11:37</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-24-12-057-IDT.png</t>
+  </si>
+  <si>
+    <t>{userDataDir=C:\Users\AvnerG\AppData\Local\Temp\scoped_dir920_29088}</t>
+  </si>
+  <si>
+    <t>15887ba8-93a0-48ae-94d7-81008e7bf6e1</t>
+  </si>
+  <si>
+    <t>2015-10-15 13:24:12</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-24-12-270-IDT.png</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-24-45-654-IDT.png</t>
+  </si>
+  <si>
+    <t>2015-10-15:10-24-27</t>
+  </si>
+  <si>
+    <t>1444904667899</t>
+  </si>
+  <si>
+    <t>2015-10-15 13:24:45</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-24-48-749-IDT.png</t>
+  </si>
+  <si>
+    <t>2015-10-15 13:24:48</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-26-57-898-IDT.png</t>
+  </si>
+  <si>
+    <t>{userDataDir=C:\Users\AvnerG\AppData\Local\Temp\scoped_dir8120_28956}</t>
+  </si>
+  <si>
+    <t>0166520c-823d-40cc-a3a5-4565ec50e123</t>
+  </si>
+  <si>
+    <t>2015-10-15 13:26:57</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-26-58-111-IDT.png</t>
+  </si>
+  <si>
+    <t>2015-10-15 13:26:58</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-27-18-865-IDT.png</t>
+  </si>
+  <si>
+    <t>2015-10-15:10-26-57</t>
+  </si>
+  <si>
+    <t>1444904817965</t>
+  </si>
+  <si>
+    <t>2015-10-15 13:27:18</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots/2015-10-15-13-27-21-149-IDT.png</t>
+  </si>
+  <si>
+    <t>2015-10-15 13:27:21</t>
   </si>
 </sst>
 </file>
@@ -547,7 +778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
@@ -2324,7 +2555,2832 @@
         <v>162</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>63</v>
+      </c>
+      <c r="R16" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" t="s">
+        <v>99</v>
+      </c>
+      <c r="T16" t="s">
+        <v>165</v>
+      </c>
+      <c r="U16" t="s">
+        <v>67</v>
+      </c>
+      <c r="V16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W16" t="s">
+        <v>68</v>
+      </c>
+      <c r="X16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="S17" t="s">
+        <v>99</v>
+      </c>
+      <c r="T17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>171</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" t="s">
+        <v>64</v>
+      </c>
+      <c r="S18" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" t="s">
+        <v>66</v>
+      </c>
+      <c r="U18" t="s">
+        <v>67</v>
+      </c>
+      <c r="V18" t="s">
+        <v>63</v>
+      </c>
+      <c r="W18" t="s">
+        <v>68</v>
+      </c>
+      <c r="X18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>63</v>
+      </c>
+      <c r="R19" t="s">
+        <v>64</v>
+      </c>
+      <c r="S19" t="s">
+        <v>99</v>
+      </c>
+      <c r="T19" t="s">
+        <v>66</v>
+      </c>
+      <c r="U19" t="s">
+        <v>67</v>
+      </c>
+      <c r="V19" t="s">
+        <v>63</v>
+      </c>
+      <c r="W19" t="s">
+        <v>68</v>
+      </c>
+      <c r="X19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="S20" t="s">
+        <v>99</v>
+      </c>
+      <c r="T20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>180</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>181</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="S21" t="s">
+        <v>99</v>
+      </c>
+      <c r="T21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>180</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>181</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="S22" t="s">
+        <v>99</v>
+      </c>
+      <c r="T22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>185</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="S23" t="s">
+        <v>99</v>
+      </c>
+      <c r="T23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>185</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" t="s">
+        <v>94</v>
+      </c>
+      <c r="M24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" t="s">
+        <v>96</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24" t="s">
+        <v>98</v>
+      </c>
+      <c r="S24" t="s">
+        <v>99</v>
+      </c>
+      <c r="T24" t="s">
+        <v>66</v>
+      </c>
+      <c r="U24" t="s">
+        <v>67</v>
+      </c>
+      <c r="V24" t="s">
+        <v>63</v>
+      </c>
+      <c r="W24" t="s">
+        <v>100</v>
+      </c>
+      <c r="X24" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" t="s">
+        <v>94</v>
+      </c>
+      <c r="M25" t="s">
+        <v>95</v>
+      </c>
+      <c r="N25" t="s">
+        <v>96</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" t="s">
+        <v>98</v>
+      </c>
+      <c r="S25" t="s">
+        <v>99</v>
+      </c>
+      <c r="T25" t="s">
+        <v>66</v>
+      </c>
+      <c r="U25" t="s">
+        <v>67</v>
+      </c>
+      <c r="V25" t="s">
+        <v>63</v>
+      </c>
+      <c r="W25" t="s">
+        <v>100</v>
+      </c>
+      <c r="X25" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="S26" t="s">
+        <v>99</v>
+      </c>
+      <c r="T26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="S27" t="s">
+        <v>99</v>
+      </c>
+      <c r="T27" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M28" t="s">
+        <v>95</v>
+      </c>
+      <c r="N28" t="s">
+        <v>96</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>63</v>
+      </c>
+      <c r="R28" t="s">
+        <v>98</v>
+      </c>
+      <c r="S28" t="s">
+        <v>99</v>
+      </c>
+      <c r="T28" t="s">
+        <v>66</v>
+      </c>
+      <c r="U28" t="s">
+        <v>67</v>
+      </c>
+      <c r="V28" t="s">
+        <v>63</v>
+      </c>
+      <c r="W28" t="s">
+        <v>100</v>
+      </c>
+      <c r="X28" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" t="s">
+        <v>95</v>
+      </c>
+      <c r="N29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>63</v>
+      </c>
+      <c r="R29" t="s">
+        <v>98</v>
+      </c>
+      <c r="S29" t="s">
+        <v>99</v>
+      </c>
+      <c r="T29" t="s">
+        <v>66</v>
+      </c>
+      <c r="U29" t="s">
+        <v>67</v>
+      </c>
+      <c r="V29" t="s">
+        <v>63</v>
+      </c>
+      <c r="W29" t="s">
+        <v>100</v>
+      </c>
+      <c r="X29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="S30" t="s">
+        <v>99</v>
+      </c>
+      <c r="T30" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>208</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="S31" t="s">
+        <v>99</v>
+      </c>
+      <c r="T31" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>208</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>63</v>
+      </c>
+      <c r="R32" t="s">
+        <v>64</v>
+      </c>
+      <c r="S32" t="s">
+        <v>99</v>
+      </c>
+      <c r="T32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U32" t="s">
+        <v>67</v>
+      </c>
+      <c r="V32" t="s">
+        <v>63</v>
+      </c>
+      <c r="W32" t="s">
+        <v>68</v>
+      </c>
+      <c r="X32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>63</v>
+      </c>
+      <c r="R33" t="s">
+        <v>64</v>
+      </c>
+      <c r="S33" t="s">
+        <v>99</v>
+      </c>
+      <c r="T33" t="s">
+        <v>66</v>
+      </c>
+      <c r="U33" t="s">
+        <v>67</v>
+      </c>
+      <c r="V33" t="s">
+        <v>63</v>
+      </c>
+      <c r="W33" t="s">
+        <v>68</v>
+      </c>
+      <c r="X33" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="S34" t="s">
+        <v>99</v>
+      </c>
+      <c r="T34" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>220</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="S35" t="s">
+        <v>99</v>
+      </c>
+      <c r="T35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>220</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36" t="s">
+        <v>94</v>
+      </c>
+      <c r="M36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N36" t="s">
+        <v>96</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>63</v>
+      </c>
+      <c r="R36" t="s">
+        <v>98</v>
+      </c>
+      <c r="S36" t="s">
+        <v>99</v>
+      </c>
+      <c r="T36" t="s">
+        <v>66</v>
+      </c>
+      <c r="U36" t="s">
+        <v>67</v>
+      </c>
+      <c r="V36" t="s">
+        <v>63</v>
+      </c>
+      <c r="W36" t="s">
+        <v>100</v>
+      </c>
+      <c r="X36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37" t="s">
+        <v>94</v>
+      </c>
+      <c r="M37" t="s">
+        <v>95</v>
+      </c>
+      <c r="N37" t="s">
+        <v>96</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R37" t="s">
+        <v>98</v>
+      </c>
+      <c r="S37" t="s">
+        <v>99</v>
+      </c>
+      <c r="T37" t="s">
+        <v>66</v>
+      </c>
+      <c r="U37" t="s">
+        <v>67</v>
+      </c>
+      <c r="V37" t="s">
+        <v>63</v>
+      </c>
+      <c r="W37" t="s">
+        <v>100</v>
+      </c>
+      <c r="X37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="S38" t="s">
+        <v>99</v>
+      </c>
+      <c r="T38" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>231</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="S39" t="s">
+        <v>99</v>
+      </c>
+      <c r="T39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>233</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>231</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" t="s">
+        <v>93</v>
+      </c>
+      <c r="K40" t="s">
+        <v>94</v>
+      </c>
+      <c r="M40" t="s">
+        <v>95</v>
+      </c>
+      <c r="N40" t="s">
+        <v>96</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>63</v>
+      </c>
+      <c r="R40" t="s">
+        <v>98</v>
+      </c>
+      <c r="S40" t="s">
+        <v>99</v>
+      </c>
+      <c r="T40" t="s">
+        <v>66</v>
+      </c>
+      <c r="U40" t="s">
+        <v>67</v>
+      </c>
+      <c r="V40" t="s">
+        <v>63</v>
+      </c>
+      <c r="W40" t="s">
+        <v>100</v>
+      </c>
+      <c r="X40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41" t="s">
+        <v>94</v>
+      </c>
+      <c r="M41" t="s">
+        <v>95</v>
+      </c>
+      <c r="N41" t="s">
+        <v>96</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>63</v>
+      </c>
+      <c r="R41" t="s">
+        <v>98</v>
+      </c>
+      <c r="S41" t="s">
+        <v>99</v>
+      </c>
+      <c r="T41" t="s">
+        <v>66</v>
+      </c>
+      <c r="U41" t="s">
+        <v>67</v>
+      </c>
+      <c r="V41" t="s">
+        <v>63</v>
+      </c>
+      <c r="W41" t="s">
+        <v>100</v>
+      </c>
+      <c r="X41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AT22" r:id="rId1"/>
+    <hyperlink ref="AT23" r:id="rId2"/>
+    <hyperlink ref="AT24" r:id="rId3"/>
+    <hyperlink ref="AT25" r:id="rId4"/>
+    <hyperlink ref="AT26" r:id="rId5"/>
+    <hyperlink ref="AT27" r:id="rId6"/>
+    <hyperlink ref="AT28" r:id="rId7"/>
+    <hyperlink ref="AT29" r:id="rId8"/>
+    <hyperlink ref="AT30" r:id="rId9"/>
+    <hyperlink ref="AT31" r:id="rId10"/>
+    <hyperlink ref="AT32" r:id="rId11"/>
+    <hyperlink ref="AT33" r:id="rId12"/>
+    <hyperlink ref="AT34" r:id="rId13"/>
+    <hyperlink ref="AT35" r:id="rId14"/>
+    <hyperlink ref="AT36" r:id="rId15"/>
+    <hyperlink ref="AT37" r:id="rId16"/>
+    <hyperlink ref="AT38" r:id="rId17"/>
+    <hyperlink ref="AT39" r:id="rId18"/>
+    <hyperlink ref="AT40" r:id="rId19"/>
+    <hyperlink ref="AT41" r:id="rId20"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Beton/src/main/resources/dataSheets/testResults_1.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="247">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -735,6 +735,24 @@
   </si>
   <si>
     <t>2015-10-15 13:27:21</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots2015-11-29-15-24-16-517-IST.png</t>
+  </si>
+  <si>
+    <t>2015-11-29:13-24-04</t>
+  </si>
+  <si>
+    <t>1448803444493</t>
+  </si>
+  <si>
+    <t>2015-11-29 15:24:16</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots2015-11-29-15-24-19-511-IST.png</t>
+  </si>
+  <si>
+    <t>2015-11-29 15:24:19</t>
   </si>
 </sst>
 </file>
@@ -5358,6 +5376,262 @@
         <v>239</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42" t="s">
+        <v>94</v>
+      </c>
+      <c r="M42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N42" t="s">
+        <v>96</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>63</v>
+      </c>
+      <c r="R42" t="s">
+        <v>98</v>
+      </c>
+      <c r="S42" t="s">
+        <v>99</v>
+      </c>
+      <c r="T42" t="s">
+        <v>66</v>
+      </c>
+      <c r="U42" t="s">
+        <v>67</v>
+      </c>
+      <c r="V42" t="s">
+        <v>63</v>
+      </c>
+      <c r="W42" t="s">
+        <v>100</v>
+      </c>
+      <c r="X42" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43" t="s">
+        <v>94</v>
+      </c>
+      <c r="M43" t="s">
+        <v>95</v>
+      </c>
+      <c r="N43" t="s">
+        <v>96</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>63</v>
+      </c>
+      <c r="R43" t="s">
+        <v>98</v>
+      </c>
+      <c r="S43" t="s">
+        <v>99</v>
+      </c>
+      <c r="T43" t="s">
+        <v>66</v>
+      </c>
+      <c r="U43" t="s">
+        <v>67</v>
+      </c>
+      <c r="V43" t="s">
+        <v>63</v>
+      </c>
+      <c r="W43" t="s">
+        <v>100</v>
+      </c>
+      <c r="X43" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AT22" r:id="rId1"/>
@@ -5380,6 +5654,8 @@
     <hyperlink ref="AT39" r:id="rId18"/>
     <hyperlink ref="AT40" r:id="rId19"/>
     <hyperlink ref="AT41" r:id="rId20"/>
+    <hyperlink ref="AT42" r:id="rId21"/>
+    <hyperlink ref="AT43" r:id="rId22"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Beton/src/main/resources/dataSheets/testResults_1.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="254">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -753,6 +753,27 @@
   </si>
   <si>
     <t>2015-11-29 15:24:19</t>
+  </si>
+  <si>
+    <t>signIn</t>
+  </si>
+  <si>
+    <t>signIn, beton.yatsuk@gmail.com, ABC123, Hi, Avner!</t>
+  </si>
+  <si>
+    <t>2015-11-30 14:46:01</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>C:\Users\AvnerG\git\Beton\Beton/test-output/screenshots2015-11-30-14-46-01-199-IST.png</t>
+  </si>
+  <si>
+    <t>1448887523167</t>
+  </si>
+  <si>
+    <t>2015-11-30:12-45-23</t>
   </si>
 </sst>
 </file>
@@ -5632,6 +5653,134 @@
         <v>245</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" t="s">
+        <v>93</v>
+      </c>
+      <c r="K44" t="s">
+        <v>94</v>
+      </c>
+      <c r="M44" t="s">
+        <v>95</v>
+      </c>
+      <c r="N44" t="s">
+        <v>96</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>63</v>
+      </c>
+      <c r="R44" t="s">
+        <v>98</v>
+      </c>
+      <c r="S44" t="s">
+        <v>99</v>
+      </c>
+      <c r="T44" t="s">
+        <v>248</v>
+      </c>
+      <c r="U44" t="s">
+        <v>67</v>
+      </c>
+      <c r="V44" t="s">
+        <v>63</v>
+      </c>
+      <c r="W44" t="s">
+        <v>100</v>
+      </c>
+      <c r="X44" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AT22" r:id="rId1"/>
@@ -5656,6 +5805,7 @@
     <hyperlink ref="AT41" r:id="rId20"/>
     <hyperlink ref="AT42" r:id="rId21"/>
     <hyperlink ref="AT43" r:id="rId22"/>
+    <hyperlink ref="AT44" r:id="rId23"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Beton/src/main/resources/dataSheets/testResults_1.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="281">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -774,6 +774,87 @@
   </si>
   <si>
     <t>2015-11-30:12-45-23</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots2015-12-09-23-21-15-256-IST.png</t>
+  </si>
+  <si>
+    <t>2015-12-09:21-20-32</t>
+  </si>
+  <si>
+    <t>1449696032604</t>
+  </si>
+  <si>
+    <t>2015-12-09 23:21:15</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots2015-12-09-23-22-20-895-IST.png</t>
+  </si>
+  <si>
+    <t>signIn, johndoe@perfectomobile.com, yyyyy, Hi, John!</t>
+  </si>
+  <si>
+    <t>2015-12-09 23:22:20</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots2015-12-09-23-23-26-944-IST.png</t>
+  </si>
+  <si>
+    <t>beton.yatsuk@gmail.com, ABC123, Hi, Avner!</t>
+  </si>
+  <si>
+    <t>2015-12-09:21-22-30</t>
+  </si>
+  <si>
+    <t>1449696150965</t>
+  </si>
+  <si>
+    <t>2015-12-09 23:23:26</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots2015-12-09-23-24-14-324-IST.png</t>
+  </si>
+  <si>
+    <t>johndoe@perfectomobile.com, yyyyy, Hi, John!</t>
+  </si>
+  <si>
+    <t>2015-12-09 23:24:14</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots2015-12-09-23-29-25-291-IST.png</t>
+  </si>
+  <si>
+    <t>2015-12-09:21-28-47</t>
+  </si>
+  <si>
+    <t>1449696527548</t>
+  </si>
+  <si>
+    <t>2015-12-09 23:29:25</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots2015-12-09-23-30-30-793-IST.png</t>
+  </si>
+  <si>
+    <t>2015-12-09 23:30:30</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots2015-12-09-23-31-17-012-IST.png</t>
+  </si>
+  <si>
+    <t>2015-12-09:21-30-41</t>
+  </si>
+  <si>
+    <t>1449696641893</t>
+  </si>
+  <si>
+    <t>2015-12-09 23:31:17</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots2015-12-09-23-32-25-436-IST.png</t>
+  </si>
+  <si>
+    <t>2015-12-09 23:32:25</t>
   </si>
 </sst>
 </file>
@@ -5781,6 +5862,1078 @@
         <v>251</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" t="s">
+        <v>59</v>
+      </c>
+      <c r="N45" t="s">
+        <v>60</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>63</v>
+      </c>
+      <c r="R45" t="s">
+        <v>64</v>
+      </c>
+      <c r="S45" t="s">
+        <v>99</v>
+      </c>
+      <c r="T45" t="s">
+        <v>248</v>
+      </c>
+      <c r="U45" t="s">
+        <v>67</v>
+      </c>
+      <c r="V45" t="s">
+        <v>63</v>
+      </c>
+      <c r="W45" t="s">
+        <v>68</v>
+      </c>
+      <c r="X45" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" t="s">
+        <v>57</v>
+      </c>
+      <c r="M46" t="s">
+        <v>59</v>
+      </c>
+      <c r="N46" t="s">
+        <v>60</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>63</v>
+      </c>
+      <c r="R46" t="s">
+        <v>64</v>
+      </c>
+      <c r="S46" t="s">
+        <v>99</v>
+      </c>
+      <c r="T46" t="s">
+        <v>259</v>
+      </c>
+      <c r="U46" t="s">
+        <v>67</v>
+      </c>
+      <c r="V46" t="s">
+        <v>63</v>
+      </c>
+      <c r="W46" t="s">
+        <v>68</v>
+      </c>
+      <c r="X46" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" t="s">
+        <v>93</v>
+      </c>
+      <c r="K47" t="s">
+        <v>94</v>
+      </c>
+      <c r="M47" t="s">
+        <v>95</v>
+      </c>
+      <c r="N47" t="s">
+        <v>96</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>63</v>
+      </c>
+      <c r="R47" t="s">
+        <v>98</v>
+      </c>
+      <c r="S47" t="s">
+        <v>99</v>
+      </c>
+      <c r="T47" t="s">
+        <v>262</v>
+      </c>
+      <c r="U47" t="s">
+        <v>67</v>
+      </c>
+      <c r="V47" t="s">
+        <v>63</v>
+      </c>
+      <c r="W47" t="s">
+        <v>100</v>
+      </c>
+      <c r="X47" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" t="s">
+        <v>93</v>
+      </c>
+      <c r="K48" t="s">
+        <v>94</v>
+      </c>
+      <c r="M48" t="s">
+        <v>95</v>
+      </c>
+      <c r="N48" t="s">
+        <v>96</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>63</v>
+      </c>
+      <c r="R48" t="s">
+        <v>98</v>
+      </c>
+      <c r="S48" t="s">
+        <v>99</v>
+      </c>
+      <c r="T48" t="s">
+        <v>267</v>
+      </c>
+      <c r="U48" t="s">
+        <v>67</v>
+      </c>
+      <c r="V48" t="s">
+        <v>63</v>
+      </c>
+      <c r="W48" t="s">
+        <v>100</v>
+      </c>
+      <c r="X48" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" t="s">
+        <v>57</v>
+      </c>
+      <c r="M49" t="s">
+        <v>59</v>
+      </c>
+      <c r="N49" t="s">
+        <v>60</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>63</v>
+      </c>
+      <c r="R49" t="s">
+        <v>64</v>
+      </c>
+      <c r="S49" t="s">
+        <v>99</v>
+      </c>
+      <c r="T49" t="s">
+        <v>248</v>
+      </c>
+      <c r="U49" t="s">
+        <v>67</v>
+      </c>
+      <c r="V49" t="s">
+        <v>63</v>
+      </c>
+      <c r="W49" t="s">
+        <v>68</v>
+      </c>
+      <c r="X49" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" t="s">
+        <v>57</v>
+      </c>
+      <c r="M50" t="s">
+        <v>59</v>
+      </c>
+      <c r="N50" t="s">
+        <v>60</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>63</v>
+      </c>
+      <c r="R50" t="s">
+        <v>64</v>
+      </c>
+      <c r="S50" t="s">
+        <v>99</v>
+      </c>
+      <c r="T50" t="s">
+        <v>259</v>
+      </c>
+      <c r="U50" t="s">
+        <v>67</v>
+      </c>
+      <c r="V50" t="s">
+        <v>63</v>
+      </c>
+      <c r="W50" t="s">
+        <v>68</v>
+      </c>
+      <c r="X50" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" t="s">
+        <v>92</v>
+      </c>
+      <c r="I51" t="s">
+        <v>93</v>
+      </c>
+      <c r="K51" t="s">
+        <v>94</v>
+      </c>
+      <c r="M51" t="s">
+        <v>95</v>
+      </c>
+      <c r="N51" t="s">
+        <v>96</v>
+      </c>
+      <c r="O51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>63</v>
+      </c>
+      <c r="R51" t="s">
+        <v>98</v>
+      </c>
+      <c r="S51" t="s">
+        <v>99</v>
+      </c>
+      <c r="T51" t="s">
+        <v>248</v>
+      </c>
+      <c r="U51" t="s">
+        <v>67</v>
+      </c>
+      <c r="V51" t="s">
+        <v>63</v>
+      </c>
+      <c r="W51" t="s">
+        <v>100</v>
+      </c>
+      <c r="X51" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>278</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" t="s">
+        <v>93</v>
+      </c>
+      <c r="K52" t="s">
+        <v>94</v>
+      </c>
+      <c r="M52" t="s">
+        <v>95</v>
+      </c>
+      <c r="N52" t="s">
+        <v>96</v>
+      </c>
+      <c r="O52" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>63</v>
+      </c>
+      <c r="R52" t="s">
+        <v>98</v>
+      </c>
+      <c r="S52" t="s">
+        <v>99</v>
+      </c>
+      <c r="T52" t="s">
+        <v>259</v>
+      </c>
+      <c r="U52" t="s">
+        <v>67</v>
+      </c>
+      <c r="V52" t="s">
+        <v>63</v>
+      </c>
+      <c r="W52" t="s">
+        <v>100</v>
+      </c>
+      <c r="X52" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AT22" r:id="rId1"/>
@@ -5806,6 +6959,14 @@
     <hyperlink ref="AT42" r:id="rId21"/>
     <hyperlink ref="AT43" r:id="rId22"/>
     <hyperlink ref="AT44" r:id="rId23"/>
+    <hyperlink ref="AT45" r:id="rId24"/>
+    <hyperlink ref="AT46" r:id="rId25"/>
+    <hyperlink ref="AT47" r:id="rId26"/>
+    <hyperlink ref="AT48" r:id="rId27"/>
+    <hyperlink ref="AT49" r:id="rId28"/>
+    <hyperlink ref="AT50" r:id="rId29"/>
+    <hyperlink ref="AT51" r:id="rId30"/>
+    <hyperlink ref="AT52" r:id="rId31"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
